--- a/outcome/appendix/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/forecast/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>75146.1521240656</v>
+        <v>76477.5314272107</v>
       </c>
       <c r="C2" t="n">
-        <v>70257.8556516731</v>
+        <v>66552.7850588662</v>
       </c>
       <c r="D2" t="n">
-        <v>67860.9581370194</v>
+        <v>62804.691568134</v>
       </c>
       <c r="E2" t="n">
-        <v>80563.0449037177</v>
+        <v>85220.7201415073</v>
       </c>
       <c r="F2" t="n">
-        <v>83670.956254655</v>
+        <v>89225.8708587377</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>7464.15212406559</v>
+        <v>8795.53142721069</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>73212.6360535144</v>
+        <v>70546.7962917225</v>
       </c>
       <c r="C3" t="n">
-        <v>68479.0094501079</v>
+        <v>61213.1608013989</v>
       </c>
       <c r="D3" t="n">
-        <v>66156.8440509486</v>
+        <v>53909.9840931605</v>
       </c>
       <c r="E3" t="n">
-        <v>78454.6954115575</v>
+        <v>79873.8303918144</v>
       </c>
       <c r="F3" t="n">
-        <v>81460.7129045921</v>
+        <v>85441.5796566317</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>28279.6360535144</v>
+        <v>25613.7962917225</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>95042.5969886811</v>
+        <v>98997.4076151041</v>
       </c>
       <c r="C4" t="n">
-        <v>88044.9583981742</v>
+        <v>88480.4063859776</v>
       </c>
       <c r="D4" t="n">
-        <v>84649.3059085104</v>
+        <v>83175.9733704668</v>
       </c>
       <c r="E4" t="n">
-        <v>102909.040062475</v>
+        <v>108245.809319554</v>
       </c>
       <c r="F4" t="n">
-        <v>107474.918602345</v>
+        <v>113662.492318935</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>21615.5969886811</v>
+        <v>25570.4076151041</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>92122.780077606</v>
+        <v>95289.3042849455</v>
       </c>
       <c r="C5" t="n">
-        <v>85398.2739413045</v>
+        <v>85644.473641751</v>
       </c>
       <c r="D5" t="n">
-        <v>82132.6512792752</v>
+        <v>82579.3833094948</v>
       </c>
       <c r="E5" t="n">
-        <v>99674.1426508442</v>
+        <v>103984.943009889</v>
       </c>
       <c r="F5" t="n">
-        <v>104053.370267122</v>
+        <v>109176.851883036</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>6438.78007760603</v>
+        <v>9605.30428494552</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>89997.4005361782</v>
+        <v>91896.1504895183</v>
       </c>
       <c r="C6" t="n">
-        <v>83460.5902816844</v>
+        <v>81820.7233258304</v>
       </c>
       <c r="D6" t="n">
-        <v>80284.720348221</v>
+        <v>76338.922746277</v>
       </c>
       <c r="E6" t="n">
-        <v>97333.5189397428</v>
+        <v>101280.877231409</v>
       </c>
       <c r="F6" t="n">
-        <v>101585.82622582</v>
+        <v>107587.910239998</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>6612.40053617822</v>
+        <v>8511.15048951833</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>86551.5025079848</v>
+        <v>87480.4077000637</v>
       </c>
       <c r="C7" t="n">
-        <v>80342.8244934301</v>
+        <v>76717.7251724637</v>
       </c>
       <c r="D7" t="n">
-        <v>77323.0731577077</v>
+        <v>72405.5279111466</v>
       </c>
       <c r="E7" t="n">
-        <v>93508.8335426613</v>
+        <v>97925.563307061</v>
       </c>
       <c r="F7" t="n">
-        <v>97536.6528641672</v>
+        <v>102459.626175041</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>1599.50250798478</v>
+        <v>2528.40770006372</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85359.7243911283</v>
+        <v>87518.545740919</v>
       </c>
       <c r="C8" t="n">
-        <v>79240.3411919136</v>
+        <v>77053.3635367698</v>
       </c>
       <c r="D8" t="n">
-        <v>76263.8593992086</v>
+        <v>73587.5181474553</v>
       </c>
       <c r="E8" t="n">
-        <v>92216.4797865656</v>
+        <v>97320.7430037952</v>
       </c>
       <c r="F8" t="n">
-        <v>96185.8324976899</v>
+        <v>102941.362574712</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>8936.72439112834</v>
+        <v>11095.545740919</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82659.4236671137</v>
+        <v>82425.221869733</v>
       </c>
       <c r="C9" t="n">
-        <v>76788.6805111145</v>
+        <v>72699.7976044048</v>
       </c>
       <c r="D9" t="n">
-        <v>73930.8245144026</v>
+        <v>67541.1887529853</v>
       </c>
       <c r="E9" t="n">
-        <v>89230.223887544</v>
+        <v>91971.0822161604</v>
       </c>
       <c r="F9" t="n">
-        <v>93030.6025135322</v>
+        <v>96709.6551342559</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>76423</v>
       </c>
       <c r="I9" t="n">
-        <v>6236.42366711369</v>
+        <v>6002.22186973297</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>79664.5024776735</v>
+        <v>78068.3830611425</v>
       </c>
       <c r="C10" t="n">
-        <v>74072.0330765719</v>
+        <v>66702.5153829625</v>
       </c>
       <c r="D10" t="n">
-        <v>71346.9161388734</v>
+        <v>63286.1377582784</v>
       </c>
       <c r="E10" t="n">
-        <v>85915.2110652949</v>
+        <v>89614.7680630103</v>
       </c>
       <c r="F10" t="n">
-        <v>89526.4303265989</v>
+        <v>95064.7724791601</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>4255.50247767352</v>
+        <v>2659.38306114254</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75044.0704371115</v>
+        <v>70838.7214814868</v>
       </c>
       <c r="C11" t="n">
-        <v>69893.4404037963</v>
+        <v>60739.2035289796</v>
       </c>
       <c r="D11" t="n">
-        <v>67378.8508713162</v>
+        <v>54197.8351423567</v>
       </c>
       <c r="E11" t="n">
-        <v>80785.8669444555</v>
+        <v>81498.3495503507</v>
       </c>
       <c r="F11" t="n">
-        <v>84096.068659122</v>
+        <v>85310.4292887078</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7201.07043711154</v>
+        <v>2995.72148148676</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>76146.7054997484</v>
+        <v>73178.5572211319</v>
       </c>
       <c r="C12" t="n">
-        <v>70854.0337230419</v>
+        <v>62284.5279487662</v>
       </c>
       <c r="D12" t="n">
-        <v>68272.8289737937</v>
+        <v>56640.7022955669</v>
       </c>
       <c r="E12" t="n">
-        <v>82055.4560496318</v>
+        <v>84586.3357600299</v>
       </c>
       <c r="F12" t="n">
-        <v>85465.9154716332</v>
+        <v>89880.1613999394</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>6506.70549974842</v>
+        <v>3538.55722113189</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>76873.1907325035</v>
+        <v>71602.8540341772</v>
       </c>
       <c r="C13" t="n">
-        <v>71475.568709017</v>
+        <v>61327.7589186812</v>
       </c>
       <c r="D13" t="n">
-        <v>68845.4434981081</v>
+        <v>55592.3230931296</v>
       </c>
       <c r="E13" t="n">
-        <v>82906.2633756172</v>
+        <v>81930.3231082408</v>
       </c>
       <c r="F13" t="n">
-        <v>86391.815594446</v>
+        <v>85430.6982572498</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>12776.1907325035</v>
+        <v>7505.85403417722</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>72899.5657914614</v>
+        <v>72983.3093613289</v>
       </c>
       <c r="C14" t="n">
-        <v>67880.0280381489</v>
+        <v>60146.7660319747</v>
       </c>
       <c r="D14" t="n">
-        <v>65430.0953155718</v>
+        <v>53372.7219016182</v>
       </c>
       <c r="E14" t="n">
-        <v>78497.2901058112</v>
+        <v>84703.5810245078</v>
       </c>
       <c r="F14" t="n">
-        <v>81725.393306485</v>
+        <v>90402.4669850535</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>8086.56579146143</v>
+        <v>8170.30936132888</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>71051.5802271894</v>
+        <v>66155.4569328113</v>
       </c>
       <c r="C15" t="n">
-        <v>66191.6704200955</v>
+        <v>55305.1615637319</v>
       </c>
       <c r="D15" t="n">
-        <v>63818.3371245066</v>
+        <v>46910.4016088021</v>
       </c>
       <c r="E15" t="n">
-        <v>76467.1612409941</v>
+        <v>77782.4064037459</v>
       </c>
       <c r="F15" t="n">
-        <v>79588.3083449568</v>
+        <v>86953.3117651707</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>15626.5802271894</v>
+        <v>10730.4569328113</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>91855.8513404481</v>
+        <v>94282.5321020946</v>
       </c>
       <c r="C16" t="n">
-        <v>84723.4237069499</v>
+        <v>83112.9021280285</v>
       </c>
       <c r="D16" t="n">
-        <v>81279.3068407092</v>
+        <v>75547.7936904947</v>
       </c>
       <c r="E16" t="n">
-        <v>99928.5502315695</v>
+        <v>104825.137762165</v>
       </c>
       <c r="F16" t="n">
-        <v>104640.054562472</v>
+        <v>110938.182819182</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>11052.8513404481</v>
+        <v>13479.5321020946</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>89080.5839851959</v>
+        <v>91049.2242571872</v>
       </c>
       <c r="C17" t="n">
-        <v>82226.0165876954</v>
+        <v>80253.3729863265</v>
       </c>
       <c r="D17" t="n">
-        <v>78913.2404050231</v>
+        <v>72036.4710214179</v>
       </c>
       <c r="E17" t="n">
-        <v>96829.5841471695</v>
+        <v>102765.941298541</v>
       </c>
       <c r="F17" t="n">
-        <v>101347.809292631</v>
+        <v>108064.184370773</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>8532.58398519595</v>
+        <v>10501.2242571872</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>87059.0432574078</v>
+        <v>87914.0467022565</v>
       </c>
       <c r="C18" t="n">
-        <v>80396.6039041999</v>
+        <v>74460.3880106296</v>
       </c>
       <c r="D18" t="n">
-        <v>77175.0295906433</v>
+        <v>70594.696994671</v>
       </c>
       <c r="E18" t="n">
-        <v>94585.484713398</v>
+        <v>101883.136481321</v>
       </c>
       <c r="F18" t="n">
-        <v>98971.4079305891</v>
+        <v>106776.386519865</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>11816.0432574078</v>
+        <v>12671.0467022565</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>83778.9861598673</v>
+        <v>84405.9646963563</v>
       </c>
       <c r="C19" t="n">
-        <v>77449.1739726685</v>
+        <v>72711.3122029757</v>
       </c>
       <c r="D19" t="n">
-        <v>74384.7975815973</v>
+        <v>68809.4761719957</v>
       </c>
       <c r="E19" t="n">
-        <v>90917.8834250707</v>
+        <v>98516.7953535095</v>
       </c>
       <c r="F19" t="n">
-        <v>95072.4124930009</v>
+        <v>105513.191784934</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>9894.98615986727</v>
+        <v>10521.9646963563</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>82643.8311833281</v>
+        <v>82888.0569108345</v>
       </c>
       <c r="C20" t="n">
-        <v>76407.2067491133</v>
+        <v>69033.0044227684</v>
       </c>
       <c r="D20" t="n">
-        <v>73387.6133633181</v>
+        <v>63402.7018359308</v>
       </c>
       <c r="E20" t="n">
-        <v>89676.5610104536</v>
+        <v>96872.895876743</v>
       </c>
       <c r="F20" t="n">
-        <v>93768.8013995382</v>
+        <v>103091.392669755</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>5995.8311833281</v>
+        <v>6240.05691083452</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>80070.4095010696</v>
+        <v>78501.6734232618</v>
       </c>
       <c r="C21" t="n">
-        <v>74086.4673359927</v>
+        <v>65059.4541215997</v>
       </c>
       <c r="D21" t="n">
-        <v>71186.633371904</v>
+        <v>57564.8527387107</v>
       </c>
       <c r="E21" t="n">
-        <v>86809.8780892599</v>
+        <v>92410.0620368032</v>
       </c>
       <c r="F21" t="n">
-        <v>90727.5540339696</v>
+        <v>101792.594511389</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>12104.4095010696</v>
+        <v>10535.6734232618</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77213.8783671666</v>
+        <v>73538.9901669837</v>
       </c>
       <c r="C22" t="n">
-        <v>71512.2205007217</v>
+        <v>60500.475611182</v>
       </c>
       <c r="D22" t="n">
-        <v>68746.1797438858</v>
+        <v>56954.152302699</v>
       </c>
       <c r="E22" t="n">
-        <v>83625.7713547394</v>
+        <v>87805.3424900527</v>
       </c>
       <c r="F22" t="n">
-        <v>87348.4904332837</v>
+        <v>92816.6016485106</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9401.87836716663</v>
+        <v>5726.99016698373</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>72802.0267637684</v>
+        <v>66959.4274786956</v>
       </c>
       <c r="C23" t="n">
-        <v>67546.7582207963</v>
+        <v>53865.8571659824</v>
       </c>
       <c r="D23" t="n">
-        <v>64992.1266681399</v>
+        <v>45966.9841359813</v>
       </c>
       <c r="E23" t="n">
-        <v>78695.4595528372</v>
+        <v>79769.3066569573</v>
       </c>
       <c r="F23" t="n">
-        <v>82109.4496177903</v>
+        <v>84678.8312914487</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>11411.0267637684</v>
+        <v>5568.42747869564</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>73855.4360702575</v>
+        <v>70002.7293180479</v>
       </c>
       <c r="C24" t="n">
-        <v>68460.5423718506</v>
+        <v>58096.8927152041</v>
       </c>
       <c r="D24" t="n">
-        <v>65840.7842214185</v>
+        <v>48526.6983718538</v>
       </c>
       <c r="E24" t="n">
-        <v>79914.2216488359</v>
+        <v>84143.4979887768</v>
       </c>
       <c r="F24" t="n">
-        <v>83428.1129525623</v>
+        <v>89774.7117010438</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>12102.4360702575</v>
+        <v>8249.72931804787</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>74549.2984591795</v>
+        <v>67321.2474498642</v>
       </c>
       <c r="C25" t="n">
-        <v>69052.1014419174</v>
+        <v>55910.7806711036</v>
       </c>
       <c r="D25" t="n">
-        <v>66384.9149347674</v>
+        <v>48234.1392886394</v>
       </c>
       <c r="E25" t="n">
-        <v>80730.1847243578</v>
+        <v>81885.5562907512</v>
       </c>
       <c r="F25" t="n">
-        <v>84318.2762558997</v>
+        <v>90461.2629417416</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>12761.2984591795</v>
+        <v>5533.24744986417</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>70752.2567595686</v>
+        <v>68510.4858587389</v>
       </c>
       <c r="C26" t="n">
-        <v>65636.8830128965</v>
+        <v>52947.6082945147</v>
       </c>
       <c r="D26" t="n">
-        <v>63150.6005577949</v>
+        <v>46097.6257458915</v>
       </c>
       <c r="E26" t="n">
-        <v>76489.9074206068</v>
+        <v>83975.8455786653</v>
       </c>
       <c r="F26" t="n">
-        <v>79814.1703313346</v>
+        <v>96615.4233173386</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>9055.2567595686</v>
+        <v>6813.48585873887</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>68984.8300430501</v>
+        <v>61193.8554255796</v>
       </c>
       <c r="C27" t="n">
-        <v>64032.1722959851</v>
+        <v>48041.5312479197</v>
       </c>
       <c r="D27" t="n">
-        <v>61623.4933021648</v>
+        <v>37953.7073667404</v>
       </c>
       <c r="E27" t="n">
-        <v>74535.2429077141</v>
+        <v>77627.8501141033</v>
       </c>
       <c r="F27" t="n">
-        <v>77748.8124631705</v>
+        <v>83467.9715713178</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>16388.8300430501</v>
+        <v>8597.85542557955</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>88826.7607606712</v>
+        <v>90381.0760213279</v>
       </c>
       <c r="C28" t="n">
-        <v>81607.7432982066</v>
+        <v>75486.5840128228</v>
       </c>
       <c r="D28" t="n">
-        <v>78137.2397540346</v>
+        <v>65085.3698994497</v>
       </c>
       <c r="E28" t="n">
-        <v>97048.0139213095</v>
+        <v>106439.947948156</v>
       </c>
       <c r="F28" t="n">
-        <v>101870.343864933</v>
+        <v>113863.247311984</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>15716.7607606712</v>
+        <v>17271.0760213279</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>86186.6558506223</v>
+        <v>86420.9699220164</v>
       </c>
       <c r="C29" t="n">
-        <v>79247.390299706</v>
+        <v>72138.740169069</v>
       </c>
       <c r="D29" t="n">
-        <v>75908.2816772634</v>
+        <v>58985.5209469814</v>
       </c>
       <c r="E29" t="n">
-        <v>94079.1240400278</v>
+        <v>101583.935068062</v>
       </c>
       <c r="F29" t="n">
-        <v>98703.7365764748</v>
+        <v>114144.857794381</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>25001.6558506223</v>
+        <v>25235.9699220164</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>84262.2977338109</v>
+        <v>83315.8069562974</v>
       </c>
       <c r="C30" t="n">
-        <v>77517.4077336379</v>
+        <v>65682.0162732034</v>
       </c>
       <c r="D30" t="n">
-        <v>74269.969298952</v>
+        <v>61011.8496131242</v>
       </c>
       <c r="E30" t="n">
-        <v>91927.5715815937</v>
+        <v>101111.817917645</v>
       </c>
       <c r="F30" t="n">
-        <v>96416.1437969034</v>
+        <v>108887.427935218</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>20672.2977338109</v>
+        <v>19725.8069562974</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>81137.6069732983</v>
+        <v>79732.0359613804</v>
       </c>
       <c r="C31" t="n">
-        <v>74726.8579944314</v>
+        <v>65707.3310696463</v>
       </c>
       <c r="D31" t="n">
-        <v>71636.3816078896</v>
+        <v>57982.467416968</v>
       </c>
       <c r="E31" t="n">
-        <v>88410.30967261</v>
+        <v>96554.1502373829</v>
       </c>
       <c r="F31" t="n">
-        <v>92662.9013115735</v>
+        <v>106786.525228229</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>13236.6069732983</v>
+        <v>11831.0359613804</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>80055.5439078296</v>
+        <v>78158.9568900125</v>
       </c>
       <c r="C32" t="n">
-        <v>73740.471323861</v>
+        <v>61820.1398377653</v>
       </c>
       <c r="D32" t="n">
-        <v>70695.6445161569</v>
+        <v>51730.6341366448</v>
       </c>
       <c r="E32" t="n">
-        <v>87218.15637494</v>
+        <v>95001.0732116804</v>
       </c>
       <c r="F32" t="n">
-        <v>91405.6381907288</v>
+        <v>106072.772954492</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>8633.54390782965</v>
+        <v>6736.95689001247</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>77601.1744871051</v>
+        <v>73969.5055737496</v>
       </c>
       <c r="C33" t="n">
-        <v>71540.5136287198</v>
+        <v>57760.9348926698</v>
       </c>
       <c r="D33" t="n">
-        <v>68615.5500525315</v>
+        <v>50269.5291924635</v>
       </c>
       <c r="E33" t="n">
-        <v>84466.082441133</v>
+        <v>91718.6116896294</v>
       </c>
       <c r="F33" t="n">
-        <v>88475.17675091</v>
+        <v>99409.3811093294</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>8582.17448710515</v>
+        <v>4950.50557374961</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>74874.6358279865</v>
+        <v>69725.9984504467</v>
       </c>
       <c r="C34" t="n">
-        <v>69097.8648299504</v>
+        <v>53051.7837822795</v>
       </c>
       <c r="D34" t="n">
-        <v>66306.6798370997</v>
+        <v>43194.0617562909</v>
       </c>
       <c r="E34" t="n">
-        <v>81407.4673814428</v>
+        <v>87762.5238493819</v>
       </c>
       <c r="F34" t="n">
-        <v>85217.6513744875</v>
+        <v>97722.7778178922</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>16236.6358279865</v>
+        <v>11087.9984504467</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>70658.9947863213</v>
+        <v>63050.0646740855</v>
       </c>
       <c r="C35" t="n">
-        <v>65329.885855952</v>
+        <v>45903.2165740474</v>
       </c>
       <c r="D35" t="n">
-        <v>62749.5474547278</v>
+        <v>35502.4450893567</v>
       </c>
       <c r="E35" t="n">
-        <v>76667.9198808447</v>
+        <v>80150.8215880956</v>
       </c>
       <c r="F35" t="n">
-        <v>80164.2138281105</v>
+        <v>90522.4581395291</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>19533.9947863213</v>
+        <v>11925.0646740855</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71666.0656746233</v>
+        <v>65498.6043074668</v>
       </c>
       <c r="C36" t="n">
-        <v>66199.937658154</v>
+        <v>47650.4653780037</v>
       </c>
       <c r="D36" t="n">
-        <v>63556.0059088757</v>
+        <v>36975.8098365925</v>
       </c>
       <c r="E36" t="n">
-        <v>77838.3820790243</v>
+        <v>84650.9824560341</v>
       </c>
       <c r="F36" t="n">
-        <v>81433.9458876554</v>
+        <v>95417.0247447114</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>23314.0656746233</v>
+        <v>17146.6043074668</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>72329.2297422191</v>
+        <v>62765.7611708876</v>
       </c>
       <c r="C37" t="n">
-        <v>66763.4059764771</v>
+        <v>47196.8488046465</v>
       </c>
       <c r="D37" t="n">
-        <v>64073.4836154653</v>
+        <v>40907.5872878266</v>
       </c>
       <c r="E37" t="n">
-        <v>78621.357009076</v>
+        <v>83728.5103790711</v>
       </c>
       <c r="F37" t="n">
-        <v>82290.1369852602</v>
+        <v>92561.1153515923</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>38378.2297422191</v>
+        <v>28814.7611708876</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>68698.4601211976</v>
+        <v>63558.9010682597</v>
       </c>
       <c r="C38" t="n">
-        <v>63515.508392947</v>
+        <v>46056.3082878114</v>
       </c>
       <c r="D38" t="n">
-        <v>61006.0149194162</v>
+        <v>38154.2296333818</v>
       </c>
       <c r="E38" t="n">
-        <v>74542.8287290114</v>
+        <v>85474.2879400532</v>
       </c>
       <c r="F38" t="n">
-        <v>77943.49122852</v>
+        <v>96065.4379803939</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>14968.4601211976</v>
+        <v>9828.90106825969</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>67006.9766653475</v>
+        <v>57448.6215681728</v>
       </c>
       <c r="C39" t="n">
-        <v>61988.4108973749</v>
+        <v>41741.4127724647</v>
       </c>
       <c r="D39" t="n">
-        <v>59556.8831800399</v>
+        <v>23404.7763295867</v>
       </c>
       <c r="E39" t="n">
-        <v>72660.7347271651</v>
+        <v>77182.5258778611</v>
       </c>
       <c r="F39" t="n">
-        <v>75948.0150690078</v>
+        <v>93520.6631191704</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>-4834.02333465252</v>
+        <v>-14392.3784318272</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>85945.0939930466</v>
+        <v>85781.9836362381</v>
       </c>
       <c r="C40" t="n">
-        <v>78677.368299636</v>
+        <v>67690.4535050604</v>
       </c>
       <c r="D40" t="n">
-        <v>75197.5419214085</v>
+        <v>58460.0341633128</v>
       </c>
       <c r="E40" t="n">
-        <v>94268.6048605439</v>
+        <v>107045.370485701</v>
       </c>
       <c r="F40" t="n">
-        <v>99173.4107229391</v>
+        <v>118265.230935216</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>9614.09399304658</v>
+        <v>9450.9836362381</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>83431.5142645747</v>
+        <v>82332.6304046533</v>
       </c>
       <c r="C41" t="n">
-        <v>76443.3271328772</v>
+        <v>63995.0883317985</v>
       </c>
       <c r="D41" t="n">
-        <v>73094.0415483384</v>
+        <v>52302.7636687295</v>
       </c>
       <c r="E41" t="n">
-        <v>91423.8584458311</v>
+        <v>103188.800947514</v>
       </c>
       <c r="F41" t="n">
-        <v>96128.2231720206</v>
+        <v>117071.046085326</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>72846</v>
       </c>
       <c r="I41" t="n">
-        <v>10585.5142645747</v>
+        <v>9486.63040465328</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>81598.2074912658</v>
+        <v>78995.3014859304</v>
       </c>
       <c r="C42" t="n">
-        <v>74805.0147668288</v>
+        <v>57944.1326369022</v>
       </c>
       <c r="D42" t="n">
-        <v>71547.1538873149</v>
+        <v>45209.4160839937</v>
       </c>
       <c r="E42" t="n">
-        <v>89360.7775171458</v>
+        <v>99885.0588037375</v>
       </c>
       <c r="F42" t="n">
-        <v>93926.6511738176</v>
+        <v>115697.128774667</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>69068</v>
       </c>
       <c r="I42" t="n">
-        <v>12530.2074912658</v>
+        <v>9927.30148593042</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>78619.222623051</v>
+        <v>75872.7823876006</v>
       </c>
       <c r="C43" t="n">
-        <v>72159.4539323352</v>
+        <v>55015.5250532958</v>
       </c>
       <c r="D43" t="n">
-        <v>69057.3606809209</v>
+        <v>43322.3540569488</v>
       </c>
       <c r="E43" t="n">
-        <v>85987.0731840865</v>
+        <v>97111.072220944</v>
       </c>
       <c r="F43" t="n">
-        <v>90314.20949001</v>
+        <v>111901.978163551</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>64788</v>
       </c>
       <c r="I43" t="n">
-        <v>13831.222623051</v>
+        <v>11084.7823876006</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>77586.9912923509</v>
+        <v>74324.585422469</v>
       </c>
       <c r="C44" t="n">
-        <v>71224.3319655742</v>
+        <v>52117.3569429795</v>
       </c>
       <c r="D44" t="n">
-        <v>68168.2781140523</v>
+        <v>42014.4144581656</v>
       </c>
       <c r="E44" t="n">
-        <v>84842.1148827558</v>
+        <v>94858.0653701216</v>
       </c>
       <c r="F44" t="n">
-        <v>89102.1057585052</v>
+        <v>107051.990119944</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>66989</v>
       </c>
       <c r="I44" t="n">
-        <v>10597.9912923509</v>
+        <v>7335.58542246901</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>75244.4417163569</v>
+        <v>69947.9435566457</v>
       </c>
       <c r="C45" t="n">
-        <v>69136.1801906988</v>
+        <v>50155.4410323732</v>
       </c>
       <c r="D45" t="n">
-        <v>66199.3358511738</v>
+        <v>37795.4359766932</v>
       </c>
       <c r="E45" t="n">
-        <v>82199.6388327867</v>
+        <v>92976.8236857014</v>
       </c>
       <c r="F45" t="n">
-        <v>86278.8189137204</v>
+        <v>109179.584310686</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>66563</v>
       </c>
       <c r="I45" t="n">
-        <v>8681.44171635693</v>
+        <v>3384.94355664567</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>72640.1254169618</v>
+        <v>64917.5050838769</v>
       </c>
       <c r="C46" t="n">
-        <v>66815.5380864388</v>
+        <v>44554.7473168001</v>
       </c>
       <c r="D46" t="n">
-        <v>64011.6678584281</v>
+        <v>34261.4740979265</v>
       </c>
       <c r="E46" t="n">
-        <v>79261.0701825817</v>
+        <v>87670.0841224071</v>
       </c>
       <c r="F46" t="n">
-        <v>83138.8530948925</v>
+        <v>105428.676866744</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>61859</v>
       </c>
       <c r="I46" t="n">
-        <v>10781.1254169618</v>
+        <v>3058.50508387693</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>68609.2287302316</v>
+        <v>58360.8166456572</v>
       </c>
       <c r="C47" t="n">
-        <v>63231.0785852473</v>
+        <v>35686.2031142573</v>
       </c>
       <c r="D47" t="n">
-        <v>60636.4187703968</v>
+        <v>21687.7927724663</v>
       </c>
       <c r="E47" t="n">
-        <v>74704.0388865728</v>
+        <v>83629.06027212</v>
       </c>
       <c r="F47" t="n">
-        <v>78264.8126129407</v>
+        <v>101158.873582119</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>59239</v>
       </c>
       <c r="I47" t="n">
-        <v>9370.22873023155</v>
+        <v>-878.183354342815</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>69572.6398981227</v>
+        <v>60953.1930537829</v>
       </c>
       <c r="C48" t="n">
-        <v>64060.2235564704</v>
+        <v>39456.4390158692</v>
       </c>
       <c r="D48" t="n">
-        <v>61403.5338930553</v>
+        <v>21787.2206706303</v>
       </c>
       <c r="E48" t="n">
-        <v>75828.5846896982</v>
+        <v>82071.1662606908</v>
       </c>
       <c r="F48" t="n">
-        <v>79487.7660700007</v>
+        <v>100340.729006966</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>57432</v>
       </c>
       <c r="I48" t="n">
-        <v>12140.6398981227</v>
+        <v>3521.19305378285</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>70206.8903106322</v>
+        <v>58974.2519636721</v>
       </c>
       <c r="C49" t="n">
-        <v>64597.3560919156</v>
+        <v>37063.9248628771</v>
       </c>
       <c r="D49" t="n">
-        <v>61896.0694058253</v>
+        <v>25223.4492432102</v>
       </c>
       <c r="E49" t="n">
-        <v>76580.2926693951</v>
+        <v>83739.0145806582</v>
       </c>
       <c r="F49" t="n">
-        <v>80311.6238997946</v>
+        <v>102734.688784754</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>52826</v>
       </c>
       <c r="I49" t="n">
-        <v>17380.8903106322</v>
+        <v>6148.25196367213</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/forecast/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>76477.5314272107</v>
+        <v>76477.5314272109</v>
       </c>
       <c r="C2" t="n">
-        <v>66552.7850588662</v>
+        <v>66552.7850588646</v>
       </c>
       <c r="D2" t="n">
-        <v>62804.691568134</v>
+        <v>62804.6915681271</v>
       </c>
       <c r="E2" t="n">
         <v>85220.7201415073</v>
       </c>
       <c r="F2" t="n">
-        <v>89225.8708587377</v>
+        <v>89225.8708587302</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>8795.53142721069</v>
+        <v>8795.53142721094</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>70546.7962917225</v>
+        <v>70546.7962917227</v>
       </c>
       <c r="C3" t="n">
-        <v>61213.1608013989</v>
+        <v>61213.1608013969</v>
       </c>
       <c r="D3" t="n">
-        <v>53909.9840931605</v>
+        <v>53909.9840931602</v>
       </c>
       <c r="E3" t="n">
         <v>79873.8303918144</v>
       </c>
       <c r="F3" t="n">
-        <v>85441.5796566317</v>
+        <v>85441.5796566382</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>25613.7962917225</v>
+        <v>25613.7962917227</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>98997.4076151041</v>
+        <v>98997.4076151044</v>
       </c>
       <c r="C4" t="n">
-        <v>88480.4063859776</v>
+        <v>88480.4063859801</v>
       </c>
       <c r="D4" t="n">
-        <v>83175.9733704668</v>
+        <v>83175.9733704744</v>
       </c>
       <c r="E4" t="n">
         <v>108245.809319554</v>
       </c>
       <c r="F4" t="n">
-        <v>113662.492318935</v>
+        <v>113662.492318925</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>25570.4076151041</v>
+        <v>25570.4076151044</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,10 +523,10 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>95289.3042849455</v>
+        <v>95289.3042849458</v>
       </c>
       <c r="C5" t="n">
-        <v>85644.473641751</v>
+        <v>85644.4736417597</v>
       </c>
       <c r="D5" t="n">
         <v>82579.3833094948</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9605.30428494552</v>
+        <v>9605.30428494576</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91896.1504895183</v>
+        <v>91896.1504895185</v>
       </c>
       <c r="C6" t="n">
         <v>81820.7233258304</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8511.15048951833</v>
+        <v>8511.15048951855</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87480.4077000637</v>
+        <v>87480.407700064</v>
       </c>
       <c r="C7" t="n">
         <v>76717.7251724637</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2528.40770006372</v>
+        <v>2528.40770006395</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>87518.545740919</v>
+        <v>87518.5457409192</v>
       </c>
       <c r="C8" t="n">
         <v>77053.3635367698</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>11095.545740919</v>
+        <v>11095.5457409192</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82425.221869733</v>
+        <v>82425.2218697332</v>
       </c>
       <c r="C9" t="n">
-        <v>72699.7976044048</v>
+        <v>72699.7976044014</v>
       </c>
       <c r="D9" t="n">
         <v>67541.1887529853</v>
       </c>
       <c r="E9" t="n">
-        <v>91971.0822161604</v>
+        <v>91971.0822161582</v>
       </c>
       <c r="F9" t="n">
-        <v>96709.6551342559</v>
+        <v>96709.655134257</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>76423</v>
       </c>
       <c r="I9" t="n">
-        <v>6002.22186973297</v>
+        <v>6002.22186973323</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78068.3830611425</v>
+        <v>78068.3830611428</v>
       </c>
       <c r="C10" t="n">
         <v>66702.5153829625</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2659.38306114254</v>
+        <v>2659.38306114278</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>70838.7214814868</v>
+        <v>70838.721481487</v>
       </c>
       <c r="C11" t="n">
         <v>60739.2035289796</v>
@@ -727,7 +727,7 @@
         <v>81498.3495503507</v>
       </c>
       <c r="F11" t="n">
-        <v>85310.4292887078</v>
+        <v>85310.4292887162</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>2995.72148148676</v>
+        <v>2995.72148148699</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,10 +747,10 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>73178.5572211319</v>
+        <v>73178.5572211321</v>
       </c>
       <c r="C12" t="n">
-        <v>62284.5279487662</v>
+        <v>62284.5279487668</v>
       </c>
       <c r="D12" t="n">
         <v>56640.7022955669</v>
@@ -759,7 +759,7 @@
         <v>84586.3357600299</v>
       </c>
       <c r="F12" t="n">
-        <v>89880.1613999394</v>
+        <v>89880.1613999393</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>3538.55722113189</v>
+        <v>3538.55722113211</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>71602.8540341772</v>
+        <v>71602.8540341774</v>
       </c>
       <c r="C13" t="n">
         <v>61327.7589186812</v>
@@ -788,10 +788,10 @@
         <v>55592.3230931296</v>
       </c>
       <c r="E13" t="n">
-        <v>81930.3231082408</v>
+        <v>81930.3231082407</v>
       </c>
       <c r="F13" t="n">
-        <v>85430.6982572498</v>
+        <v>85430.69825726</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>7505.85403417722</v>
+        <v>7505.85403417745</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>72983.3093613289</v>
+        <v>72983.3093613292</v>
       </c>
       <c r="C14" t="n">
         <v>60146.7660319747</v>
@@ -820,7 +820,7 @@
         <v>53372.7219016182</v>
       </c>
       <c r="E14" t="n">
-        <v>84703.5810245078</v>
+        <v>84703.5810245112</v>
       </c>
       <c r="F14" t="n">
         <v>90402.4669850535</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>8170.30936132888</v>
+        <v>8170.30936132916</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,16 +843,16 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>66155.4569328113</v>
+        <v>66155.4569328115</v>
       </c>
       <c r="C15" t="n">
         <v>55305.1615637319</v>
       </c>
       <c r="D15" t="n">
-        <v>46910.4016088021</v>
+        <v>46910.4016088095</v>
       </c>
       <c r="E15" t="n">
-        <v>77782.4064037459</v>
+        <v>77782.4064037526</v>
       </c>
       <c r="F15" t="n">
         <v>86953.3117651707</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>10730.4569328113</v>
+        <v>10730.4569328115</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,16 +875,16 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>94282.5321020946</v>
+        <v>94282.5321020948</v>
       </c>
       <c r="C16" t="n">
         <v>83112.9021280285</v>
       </c>
       <c r="D16" t="n">
-        <v>75547.7936904947</v>
+        <v>75547.7936905037</v>
       </c>
       <c r="E16" t="n">
-        <v>104825.137762165</v>
+        <v>104825.137762181</v>
       </c>
       <c r="F16" t="n">
         <v>110938.182819182</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>13479.5321020946</v>
+        <v>13479.5321020948</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,13 +907,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>91049.2242571872</v>
+        <v>91049.2242571875</v>
       </c>
       <c r="C17" t="n">
-        <v>80253.3729863265</v>
+        <v>80253.372986333</v>
       </c>
       <c r="D17" t="n">
-        <v>72036.4710214179</v>
+        <v>72036.4710214182</v>
       </c>
       <c r="E17" t="n">
         <v>102765.941298541</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>10501.2242571872</v>
+        <v>10501.2242571875</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,13 +939,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>87914.0467022565</v>
+        <v>87914.0467022568</v>
       </c>
       <c r="C18" t="n">
         <v>74460.3880106296</v>
       </c>
       <c r="D18" t="n">
-        <v>70594.696994671</v>
+        <v>70594.696994676</v>
       </c>
       <c r="E18" t="n">
         <v>101883.136481321</v>
@@ -960,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>12671.0467022565</v>
+        <v>12671.0467022568</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,13 +971,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>84405.9646963563</v>
+        <v>84405.9646963565</v>
       </c>
       <c r="C19" t="n">
-        <v>72711.3122029757</v>
+        <v>72711.3122029803</v>
       </c>
       <c r="D19" t="n">
-        <v>68809.4761719957</v>
+        <v>68809.4761719947</v>
       </c>
       <c r="E19" t="n">
         <v>98516.7953535095</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>10521.9646963563</v>
+        <v>10521.9646963565</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,10 +1003,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>82888.0569108345</v>
+        <v>82888.0569108348</v>
       </c>
       <c r="C20" t="n">
-        <v>69033.0044227684</v>
+        <v>69033.0044227683</v>
       </c>
       <c r="D20" t="n">
         <v>63402.7018359308</v>
@@ -1015,7 +1015,7 @@
         <v>96872.895876743</v>
       </c>
       <c r="F20" t="n">
-        <v>103091.392669755</v>
+        <v>103091.392669756</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>6240.05691083452</v>
+        <v>6240.05691083478</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,16 +1035,16 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>78501.6734232618</v>
+        <v>78501.6734232621</v>
       </c>
       <c r="C21" t="n">
-        <v>65059.4541215997</v>
+        <v>65059.454121598</v>
       </c>
       <c r="D21" t="n">
         <v>57564.8527387107</v>
       </c>
       <c r="E21" t="n">
-        <v>92410.0620368032</v>
+        <v>92410.0620368047</v>
       </c>
       <c r="F21" t="n">
         <v>101792.594511389</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>10535.6734232618</v>
+        <v>10535.6734232621</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>73538.9901669837</v>
+        <v>73538.990166984</v>
       </c>
       <c r="C22" t="n">
         <v>60500.475611182</v>
       </c>
       <c r="D22" t="n">
-        <v>56954.152302699</v>
+        <v>56954.1523027015</v>
       </c>
       <c r="E22" t="n">
-        <v>87805.3424900527</v>
+        <v>87805.3424900376</v>
       </c>
       <c r="F22" t="n">
-        <v>92816.6016485106</v>
+        <v>92816.6016485113</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>5726.99016698373</v>
+        <v>5726.99016698397</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>66959.4274786956</v>
+        <v>66959.4274786959</v>
       </c>
       <c r="C23" t="n">
         <v>53865.8571659824</v>
@@ -1108,7 +1108,7 @@
         <v>45966.9841359813</v>
       </c>
       <c r="E23" t="n">
-        <v>79769.3066569573</v>
+        <v>79769.3066569662</v>
       </c>
       <c r="F23" t="n">
         <v>84678.8312914487</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>5568.42747869564</v>
+        <v>5568.42747869588</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,13 +1131,13 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>70002.7293180479</v>
+        <v>70002.7293180481</v>
       </c>
       <c r="C24" t="n">
-        <v>58096.8927152041</v>
+        <v>58096.8927152047</v>
       </c>
       <c r="D24" t="n">
-        <v>48526.6983718538</v>
+        <v>48526.6983718552</v>
       </c>
       <c r="E24" t="n">
         <v>84143.4979887768</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>8249.72931804787</v>
+        <v>8249.72931804808</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>67321.2474498642</v>
+        <v>67321.2474498644</v>
       </c>
       <c r="C25" t="n">
         <v>55910.7806711036</v>
@@ -1175,7 +1175,7 @@
         <v>81885.5562907512</v>
       </c>
       <c r="F25" t="n">
-        <v>90461.2629417416</v>
+        <v>90461.2629417415</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>5533.24744986417</v>
+        <v>5533.2474498644</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,10 +1195,10 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>68510.4858587389</v>
+        <v>68510.4858587391</v>
       </c>
       <c r="C26" t="n">
-        <v>52947.6082945147</v>
+        <v>52947.6082945112</v>
       </c>
       <c r="D26" t="n">
         <v>46097.6257458915</v>
@@ -1207,7 +1207,7 @@
         <v>83975.8455786653</v>
       </c>
       <c r="F26" t="n">
-        <v>96615.4233173386</v>
+        <v>96615.4233173389</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>6813.48585873887</v>
+        <v>6813.48585873914</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,16 +1227,16 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>61193.8554255796</v>
+        <v>61193.8554255798</v>
       </c>
       <c r="C27" t="n">
         <v>48041.5312479197</v>
       </c>
       <c r="D27" t="n">
-        <v>37953.7073667404</v>
+        <v>37953.7073667283</v>
       </c>
       <c r="E27" t="n">
-        <v>77627.8501141033</v>
+        <v>77627.8501141081</v>
       </c>
       <c r="F27" t="n">
         <v>83467.9715713178</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>8597.85542557955</v>
+        <v>8597.85542557983</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,10 +1259,10 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>90381.0760213279</v>
+        <v>90381.0760213281</v>
       </c>
       <c r="C28" t="n">
-        <v>75486.5840128228</v>
+        <v>75486.584012813</v>
       </c>
       <c r="D28" t="n">
         <v>65085.3698994497</v>
@@ -1271,7 +1271,7 @@
         <v>106439.947948156</v>
       </c>
       <c r="F28" t="n">
-        <v>113863.247311984</v>
+        <v>113863.247311993</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>17271.0760213279</v>
+        <v>17271.0760213281</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>86420.9699220164</v>
+        <v>86420.9699220167</v>
       </c>
       <c r="C29" t="n">
         <v>72138.740169069</v>
@@ -1303,7 +1303,7 @@
         <v>101583.935068062</v>
       </c>
       <c r="F29" t="n">
-        <v>114144.857794381</v>
+        <v>114144.857794388</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>25235.9699220164</v>
+        <v>25235.9699220167</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>83315.8069562974</v>
+        <v>83315.8069562977</v>
       </c>
       <c r="C30" t="n">
         <v>65682.0162732034</v>
@@ -1332,7 +1332,7 @@
         <v>61011.8496131242</v>
       </c>
       <c r="E30" t="n">
-        <v>101111.817917645</v>
+        <v>101111.817917643</v>
       </c>
       <c r="F30" t="n">
         <v>108887.427935218</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>19725.8069562974</v>
+        <v>19725.8069562977</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,13 +1355,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>79732.0359613804</v>
+        <v>79732.0359613807</v>
       </c>
       <c r="C31" t="n">
-        <v>65707.3310696463</v>
+        <v>65707.3310696464</v>
       </c>
       <c r="D31" t="n">
-        <v>57982.467416968</v>
+        <v>57982.4674169724</v>
       </c>
       <c r="E31" t="n">
         <v>96554.1502373829</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>11831.0359613804</v>
+        <v>11831.0359613807</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,10 +1387,10 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>78158.9568900125</v>
+        <v>78158.9568900127</v>
       </c>
       <c r="C32" t="n">
-        <v>61820.1398377653</v>
+        <v>61820.1398377646</v>
       </c>
       <c r="D32" t="n">
         <v>51730.6341366448</v>
@@ -1399,7 +1399,7 @@
         <v>95001.0732116804</v>
       </c>
       <c r="F32" t="n">
-        <v>106072.772954492</v>
+        <v>106072.772954498</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>6736.95689001247</v>
+        <v>6736.95689001273</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>73969.5055737496</v>
+        <v>73969.5055737498</v>
       </c>
       <c r="C33" t="n">
         <v>57760.9348926698</v>
@@ -1428,10 +1428,10 @@
         <v>50269.5291924635</v>
       </c>
       <c r="E33" t="n">
-        <v>91718.6116896294</v>
+        <v>91718.6116895955</v>
       </c>
       <c r="F33" t="n">
-        <v>99409.3811093294</v>
+        <v>99409.381109336</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>4950.50557374961</v>
+        <v>4950.50557374983</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>69725.9984504467</v>
+        <v>69725.998450447</v>
       </c>
       <c r="C34" t="n">
         <v>53051.7837822795</v>
@@ -1460,10 +1460,10 @@
         <v>43194.0617562909</v>
       </c>
       <c r="E34" t="n">
-        <v>87762.5238493819</v>
+        <v>87762.5238493822</v>
       </c>
       <c r="F34" t="n">
-        <v>97722.7778178922</v>
+        <v>97722.7778178987</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>11087.9984504467</v>
+        <v>11087.998450447</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,10 +1483,10 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>63050.0646740855</v>
+        <v>63050.0646740858</v>
       </c>
       <c r="C35" t="n">
-        <v>45903.2165740474</v>
+        <v>45903.2165740472</v>
       </c>
       <c r="D35" t="n">
         <v>35502.4450893567</v>
@@ -1495,7 +1495,7 @@
         <v>80150.8215880956</v>
       </c>
       <c r="F35" t="n">
-        <v>90522.4581395291</v>
+        <v>90522.4581395498</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>11925.0646740855</v>
+        <v>11925.0646740858</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>65498.6043074668</v>
+        <v>65498.6043074671</v>
       </c>
       <c r="C36" t="n">
-        <v>47650.4653780037</v>
+        <v>47650.4653780294</v>
       </c>
       <c r="D36" t="n">
-        <v>36975.8098365925</v>
+        <v>36975.809836597</v>
       </c>
       <c r="E36" t="n">
         <v>84650.9824560341</v>
       </c>
       <c r="F36" t="n">
-        <v>95417.0247447114</v>
+        <v>95417.0247447207</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>17146.6043074668</v>
+        <v>17146.6043074671</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>62765.7611708876</v>
+        <v>62765.7611708878</v>
       </c>
       <c r="C37" t="n">
         <v>47196.8488046465</v>
@@ -1556,10 +1556,10 @@
         <v>40907.5872878266</v>
       </c>
       <c r="E37" t="n">
-        <v>83728.5103790711</v>
+        <v>83728.5103790383</v>
       </c>
       <c r="F37" t="n">
-        <v>92561.1153515923</v>
+        <v>92561.1153516014</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>28814.7611708876</v>
+        <v>28814.7611708878</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,16 +1579,16 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>63558.9010682597</v>
+        <v>63558.90106826</v>
       </c>
       <c r="C38" t="n">
-        <v>46056.3082878114</v>
+        <v>46056.3082877904</v>
       </c>
       <c r="D38" t="n">
         <v>38154.2296333818</v>
       </c>
       <c r="E38" t="n">
-        <v>85474.2879400532</v>
+        <v>85474.287940058</v>
       </c>
       <c r="F38" t="n">
         <v>96065.4379803939</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>9828.90106825969</v>
+        <v>9828.90106825998</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,16 +1611,16 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>57448.6215681728</v>
+        <v>57448.6215681731</v>
       </c>
       <c r="C39" t="n">
         <v>41741.4127724647</v>
       </c>
       <c r="D39" t="n">
-        <v>23404.7763295867</v>
+        <v>23404.7763295825</v>
       </c>
       <c r="E39" t="n">
-        <v>77182.5258778611</v>
+        <v>77182.5258778665</v>
       </c>
       <c r="F39" t="n">
         <v>93520.6631191704</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>-14392.3784318272</v>
+        <v>-14392.3784318269</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>85781.9836362381</v>
+        <v>85781.9836362384</v>
       </c>
       <c r="C40" t="n">
-        <v>67690.4535050604</v>
+        <v>67690.4535050603</v>
       </c>
       <c r="D40" t="n">
-        <v>58460.0341633128</v>
+        <v>58460.0341633087</v>
       </c>
       <c r="E40" t="n">
-        <v>107045.370485701</v>
+        <v>107045.370485699</v>
       </c>
       <c r="F40" t="n">
-        <v>118265.230935216</v>
+        <v>118265.230935217</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>9450.9836362381</v>
+        <v>9450.98363623839</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,10 +1675,10 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>82332.6304046533</v>
+        <v>82332.6304046536</v>
       </c>
       <c r="C41" t="n">
-        <v>63995.0883317985</v>
+        <v>63995.0883317818</v>
       </c>
       <c r="D41" t="n">
         <v>52302.7636687295</v>
@@ -1696,7 +1696,7 @@
         <v>72846</v>
       </c>
       <c r="I41" t="n">
-        <v>9486.63040465328</v>
+        <v>9486.63040465357</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>78995.3014859304</v>
+        <v>78995.3014859307</v>
       </c>
       <c r="C42" t="n">
         <v>57944.1326369022</v>
       </c>
       <c r="D42" t="n">
-        <v>45209.4160839937</v>
+        <v>45209.4160839984</v>
       </c>
       <c r="E42" t="n">
         <v>99885.0588037375</v>
       </c>
       <c r="F42" t="n">
-        <v>115697.128774667</v>
+        <v>115697.128774668</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>69068</v>
       </c>
       <c r="I42" t="n">
-        <v>9927.30148593042</v>
+        <v>9927.3014859307</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,13 +1739,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>75872.7823876006</v>
+        <v>75872.7823876008</v>
       </c>
       <c r="C43" t="n">
         <v>55015.5250532958</v>
       </c>
       <c r="D43" t="n">
-        <v>43322.3540569488</v>
+        <v>43322.3540569641</v>
       </c>
       <c r="E43" t="n">
         <v>97111.072220944</v>
@@ -1760,7 +1760,7 @@
         <v>64788</v>
       </c>
       <c r="I43" t="n">
-        <v>11084.7823876006</v>
+        <v>11084.7823876008</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,13 +1771,13 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>74324.585422469</v>
+        <v>74324.5854224693</v>
       </c>
       <c r="C44" t="n">
         <v>52117.3569429795</v>
       </c>
       <c r="D44" t="n">
-        <v>42014.4144581656</v>
+        <v>42014.4144581658</v>
       </c>
       <c r="E44" t="n">
         <v>94858.0653701216</v>
@@ -1792,7 +1792,7 @@
         <v>66989</v>
       </c>
       <c r="I44" t="n">
-        <v>7335.58542246901</v>
+        <v>7335.5854224693</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>69947.9435566457</v>
+        <v>69947.9435566459</v>
       </c>
       <c r="C45" t="n">
         <v>50155.4410323732</v>
@@ -1824,7 +1824,7 @@
         <v>66563</v>
       </c>
       <c r="I45" t="n">
-        <v>3384.94355664567</v>
+        <v>3384.94355664594</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,16 +1835,16 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>64917.5050838769</v>
+        <v>64917.5050838772</v>
       </c>
       <c r="C46" t="n">
-        <v>44554.7473168001</v>
+        <v>44554.7473167966</v>
       </c>
       <c r="D46" t="n">
-        <v>34261.4740979265</v>
+        <v>34261.4740979262</v>
       </c>
       <c r="E46" t="n">
-        <v>87670.0841224071</v>
+        <v>87670.0841224116</v>
       </c>
       <c r="F46" t="n">
         <v>105428.676866744</v>
@@ -1856,7 +1856,7 @@
         <v>61859</v>
       </c>
       <c r="I46" t="n">
-        <v>3058.50508387693</v>
+        <v>3058.50508387722</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,16 +1867,16 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>58360.8166456572</v>
+        <v>58360.8166456575</v>
       </c>
       <c r="C47" t="n">
-        <v>35686.2031142573</v>
+        <v>35686.2031142367</v>
       </c>
       <c r="D47" t="n">
         <v>21687.7927724663</v>
       </c>
       <c r="E47" t="n">
-        <v>83629.06027212</v>
+        <v>83629.0602721247</v>
       </c>
       <c r="F47" t="n">
         <v>101158.873582119</v>
@@ -1888,7 +1888,7 @@
         <v>59239</v>
       </c>
       <c r="I47" t="n">
-        <v>-878.183354342815</v>
+        <v>-878.183354342538</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>60953.1930537829</v>
+        <v>60953.1930537832</v>
       </c>
       <c r="C48" t="n">
         <v>39456.4390158692</v>
       </c>
       <c r="D48" t="n">
-        <v>21787.2206706303</v>
+        <v>21787.2206706259</v>
       </c>
       <c r="E48" t="n">
         <v>82071.1662606908</v>
       </c>
       <c r="F48" t="n">
-        <v>100340.729006966</v>
+        <v>100340.729006976</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>57432</v>
       </c>
       <c r="I48" t="n">
-        <v>3521.19305378285</v>
+        <v>3521.19305378319</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,13 +1931,13 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>58974.2519636721</v>
+        <v>58974.2519636724</v>
       </c>
       <c r="C49" t="n">
-        <v>37063.9248628771</v>
+        <v>37063.9248628769</v>
       </c>
       <c r="D49" t="n">
-        <v>25223.4492432102</v>
+        <v>25223.4492432104</v>
       </c>
       <c r="E49" t="n">
         <v>83739.0145806582</v>
@@ -1952,7 +1952,7 @@
         <v>52826</v>
       </c>
       <c r="I49" t="n">
-        <v>6148.25196367213</v>
+        <v>6148.2519636724</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Tuberculosis.xlsx
+++ b/outcome/appendix/forecast/Tuberculosis.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>76477.5314272109</v>
+        <v>76477.5314272111</v>
       </c>
       <c r="C2" t="n">
-        <v>66552.7850588646</v>
+        <v>66552.7850588625</v>
       </c>
       <c r="D2" t="n">
-        <v>62804.6915681271</v>
+        <v>62804.6915681419</v>
       </c>
       <c r="E2" t="n">
-        <v>85220.7201415073</v>
+        <v>85220.7201414954</v>
       </c>
       <c r="F2" t="n">
-        <v>89225.8708587302</v>
+        <v>89225.8708587336</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>8795.53142721094</v>
+        <v>8795.5314272111</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>70546.7962917227</v>
+        <v>70546.7962917224</v>
       </c>
       <c r="C3" t="n">
-        <v>61213.1608013969</v>
+        <v>61213.1608013959</v>
       </c>
       <c r="D3" t="n">
-        <v>53909.9840931602</v>
+        <v>53909.984093162</v>
       </c>
       <c r="E3" t="n">
-        <v>79873.8303918144</v>
+        <v>79873.8303918236</v>
       </c>
       <c r="F3" t="n">
-        <v>85441.5796566382</v>
+        <v>85441.5796566476</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>25613.7962917227</v>
+        <v>25613.7962917224</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>98997.4076151044</v>
+        <v>98997.407615104</v>
       </c>
       <c r="C4" t="n">
-        <v>88480.4063859801</v>
+        <v>88480.406385988</v>
       </c>
       <c r="D4" t="n">
-        <v>83175.9733704744</v>
+        <v>83175.9733704772</v>
       </c>
       <c r="E4" t="n">
-        <v>108245.809319554</v>
+        <v>108245.809319546</v>
       </c>
       <c r="F4" t="n">
-        <v>113662.492318925</v>
+        <v>113662.49231895</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>25570.4076151044</v>
+        <v>25570.407615104</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>95289.3042849458</v>
+        <v>95289.3042849455</v>
       </c>
       <c r="C5" t="n">
-        <v>85644.4736417597</v>
+        <v>85644.473641747</v>
       </c>
       <c r="D5" t="n">
-        <v>82579.3833094948</v>
+        <v>82579.3833094995</v>
       </c>
       <c r="E5" t="n">
-        <v>103984.943009889</v>
+        <v>103984.943009891</v>
       </c>
       <c r="F5" t="n">
-        <v>109176.851883036</v>
+        <v>109176.851883045</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9605.30428494576</v>
+        <v>9605.30428494551</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91896.1504895185</v>
+        <v>91896.1504895184</v>
       </c>
       <c r="C6" t="n">
-        <v>81820.7233258304</v>
+        <v>81820.7233258248</v>
       </c>
       <c r="D6" t="n">
-        <v>76338.922746277</v>
+        <v>76338.9227462784</v>
       </c>
       <c r="E6" t="n">
-        <v>101280.877231409</v>
+        <v>101280.877231425</v>
       </c>
       <c r="F6" t="n">
-        <v>107587.910239998</v>
+        <v>107587.910240011</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8511.15048951855</v>
+        <v>8511.1504895184</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87480.407700064</v>
+        <v>87480.4077000639</v>
       </c>
       <c r="C7" t="n">
-        <v>76717.7251724637</v>
+        <v>76717.7251724614</v>
       </c>
       <c r="D7" t="n">
-        <v>72405.5279111466</v>
+        <v>72405.5279111423</v>
       </c>
       <c r="E7" t="n">
-        <v>97925.563307061</v>
+        <v>97925.5633070703</v>
       </c>
       <c r="F7" t="n">
-        <v>102459.626175041</v>
+        <v>102459.626175037</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2528.40770006395</v>
+        <v>2528.40770006386</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>87518.5457409192</v>
+        <v>87518.5457409191</v>
       </c>
       <c r="C8" t="n">
-        <v>77053.3635367698</v>
+        <v>77053.3635367694</v>
       </c>
       <c r="D8" t="n">
-        <v>73587.5181474553</v>
+        <v>73587.5181474566</v>
       </c>
       <c r="E8" t="n">
-        <v>97320.7430037952</v>
+        <v>97320.7430037964</v>
       </c>
       <c r="F8" t="n">
-        <v>102941.362574712</v>
+        <v>102941.362574717</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>11095.5457409192</v>
+        <v>11095.5457409191</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82425.2218697332</v>
+        <v>82425.2218697331</v>
       </c>
       <c r="C9" t="n">
-        <v>72699.7976044014</v>
+        <v>72699.7976043992</v>
       </c>
       <c r="D9" t="n">
-        <v>67541.1887529853</v>
+        <v>67541.1887529912</v>
       </c>
       <c r="E9" t="n">
-        <v>91971.0822161582</v>
+        <v>91971.0822161684</v>
       </c>
       <c r="F9" t="n">
-        <v>96709.655134257</v>
+        <v>96709.6551342452</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>76423</v>
       </c>
       <c r="I9" t="n">
-        <v>6002.22186973323</v>
+        <v>6002.22186973307</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78068.3830611428</v>
+        <v>78068.3830611427</v>
       </c>
       <c r="C10" t="n">
-        <v>66702.5153829625</v>
+        <v>66702.5153829666</v>
       </c>
       <c r="D10" t="n">
-        <v>63286.1377582784</v>
+        <v>63286.1377582752</v>
       </c>
       <c r="E10" t="n">
-        <v>89614.7680630103</v>
+        <v>89614.7680629995</v>
       </c>
       <c r="F10" t="n">
-        <v>95064.7724791601</v>
+        <v>95064.7724791629</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2659.38306114278</v>
+        <v>2659.38306114267</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -718,16 +718,16 @@
         <v>70838.721481487</v>
       </c>
       <c r="C11" t="n">
-        <v>60739.2035289796</v>
+        <v>60739.203528993</v>
       </c>
       <c r="D11" t="n">
-        <v>54197.8351423567</v>
+        <v>54197.8351423603</v>
       </c>
       <c r="E11" t="n">
-        <v>81498.3495503507</v>
+        <v>81498.3495503505</v>
       </c>
       <c r="F11" t="n">
-        <v>85310.4292887162</v>
+        <v>85310.4292887158</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>2995.72148148699</v>
+        <v>2995.72148148701</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>73178.5572211321</v>
+        <v>73178.557221132</v>
       </c>
       <c r="C12" t="n">
-        <v>62284.5279487668</v>
+        <v>62284.5279487779</v>
       </c>
       <c r="D12" t="n">
-        <v>56640.7022955669</v>
+        <v>56640.7022955733</v>
       </c>
       <c r="E12" t="n">
-        <v>84586.3357600299</v>
+        <v>84586.3357600361</v>
       </c>
       <c r="F12" t="n">
-        <v>89880.1613999393</v>
+        <v>89880.1613999399</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>3538.55722113211</v>
+        <v>3538.55722113201</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>71602.8540341774</v>
+        <v>71602.8540341772</v>
       </c>
       <c r="C13" t="n">
-        <v>61327.7589186812</v>
+        <v>61327.7589186942</v>
       </c>
       <c r="D13" t="n">
-        <v>55592.3230931296</v>
+        <v>55592.3230931283</v>
       </c>
       <c r="E13" t="n">
-        <v>81930.3231082407</v>
+        <v>81930.3231082451</v>
       </c>
       <c r="F13" t="n">
-        <v>85430.69825726</v>
+        <v>85430.6982572579</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>7505.85403417745</v>
+        <v>7505.85403417725</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>72983.3093613292</v>
+        <v>72983.3093613295</v>
       </c>
       <c r="C14" t="n">
-        <v>60146.7660319747</v>
+        <v>60146.7660319843</v>
       </c>
       <c r="D14" t="n">
-        <v>53372.7219016182</v>
+        <v>53372.7219016346</v>
       </c>
       <c r="E14" t="n">
-        <v>84703.5810245112</v>
+        <v>84703.5810245109</v>
       </c>
       <c r="F14" t="n">
-        <v>90402.4669850535</v>
+        <v>90402.4669850469</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>8170.30936132916</v>
+        <v>8170.30936132946</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>66155.4569328115</v>
+        <v>66155.4569328114</v>
       </c>
       <c r="C15" t="n">
-        <v>55305.1615637319</v>
+        <v>55305.1615637392</v>
       </c>
       <c r="D15" t="n">
-        <v>46910.4016088095</v>
+        <v>46910.4016088203</v>
       </c>
       <c r="E15" t="n">
-        <v>77782.4064037526</v>
+        <v>77782.4064037486</v>
       </c>
       <c r="F15" t="n">
-        <v>86953.3117651707</v>
+        <v>86953.311765176</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>10730.4569328115</v>
+        <v>10730.4569328114</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>94282.5321020948</v>
+        <v>94282.5321020946</v>
       </c>
       <c r="C16" t="n">
-        <v>83112.9021280285</v>
+        <v>83112.9021280352</v>
       </c>
       <c r="D16" t="n">
-        <v>75547.7936905037</v>
+        <v>75547.7936905095</v>
       </c>
       <c r="E16" t="n">
-        <v>104825.137762181</v>
+        <v>104825.137762173</v>
       </c>
       <c r="F16" t="n">
-        <v>110938.182819182</v>
+        <v>110938.182819176</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>13479.5321020948</v>
+        <v>13479.5321020946</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>91049.2242571875</v>
+        <v>91049.2242571874</v>
       </c>
       <c r="C17" t="n">
-        <v>80253.372986333</v>
+        <v>80253.372986339</v>
       </c>
       <c r="D17" t="n">
-        <v>72036.4710214182</v>
+        <v>72036.471021416</v>
       </c>
       <c r="E17" t="n">
-        <v>102765.941298541</v>
+        <v>102765.941298545</v>
       </c>
       <c r="F17" t="n">
-        <v>108064.184370773</v>
+        <v>108064.184370782</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>10501.2242571875</v>
+        <v>10501.2242571874</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -942,16 +942,16 @@
         <v>87914.0467022568</v>
       </c>
       <c r="C18" t="n">
-        <v>74460.3880106296</v>
+        <v>74460.3880106247</v>
       </c>
       <c r="D18" t="n">
-        <v>70594.696994676</v>
+        <v>70594.6969946615</v>
       </c>
       <c r="E18" t="n">
-        <v>101883.136481321</v>
+        <v>101883.136481319</v>
       </c>
       <c r="F18" t="n">
-        <v>106776.386519865</v>
+        <v>106776.386519869</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>84405.9646963565</v>
+        <v>84405.9646963566</v>
       </c>
       <c r="C19" t="n">
-        <v>72711.3122029803</v>
+        <v>72711.312202967</v>
       </c>
       <c r="D19" t="n">
-        <v>68809.4761719947</v>
+        <v>68809.4761720099</v>
       </c>
       <c r="E19" t="n">
-        <v>98516.7953535095</v>
+        <v>98516.7953534997</v>
       </c>
       <c r="F19" t="n">
-        <v>105513.191784934</v>
+        <v>105513.19178493</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>10521.9646963565</v>
+        <v>10521.9646963566</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>82888.0569108348</v>
+        <v>82888.0569108349</v>
       </c>
       <c r="C20" t="n">
-        <v>69033.0044227683</v>
+        <v>69033.0044227713</v>
       </c>
       <c r="D20" t="n">
-        <v>63402.7018359308</v>
+        <v>63402.7018359296</v>
       </c>
       <c r="E20" t="n">
-        <v>96872.895876743</v>
+        <v>96872.8958767447</v>
       </c>
       <c r="F20" t="n">
-        <v>103091.392669756</v>
+        <v>103091.392669755</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>6240.05691083478</v>
+        <v>6240.05691083489</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>78501.6734232621</v>
+        <v>78501.6734232622</v>
       </c>
       <c r="C21" t="n">
-        <v>65059.454121598</v>
+        <v>65059.4541216007</v>
       </c>
       <c r="D21" t="n">
-        <v>57564.8527387107</v>
+        <v>57564.8527387161</v>
       </c>
       <c r="E21" t="n">
-        <v>92410.0620368047</v>
+        <v>92410.0620368114</v>
       </c>
       <c r="F21" t="n">
-        <v>101792.594511389</v>
+        <v>101792.594511383</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>10535.6734232621</v>
+        <v>10535.6734232622</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>73538.990166984</v>
+        <v>73538.9901669841</v>
       </c>
       <c r="C22" t="n">
-        <v>60500.475611182</v>
+        <v>60500.4756111817</v>
       </c>
       <c r="D22" t="n">
-        <v>56954.1523027015</v>
+        <v>56954.1523027025</v>
       </c>
       <c r="E22" t="n">
-        <v>87805.3424900376</v>
+        <v>87805.3424900319</v>
       </c>
       <c r="F22" t="n">
-        <v>92816.6016485113</v>
+        <v>92816.6016485237</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>5726.99016698397</v>
+        <v>5726.99016698409</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>66959.4274786959</v>
+        <v>66959.4274786961</v>
       </c>
       <c r="C23" t="n">
-        <v>53865.8571659824</v>
+        <v>53865.8571659861</v>
       </c>
       <c r="D23" t="n">
-        <v>45966.9841359813</v>
+        <v>45966.9841359793</v>
       </c>
       <c r="E23" t="n">
-        <v>79769.3066569662</v>
+        <v>79769.3066569655</v>
       </c>
       <c r="F23" t="n">
-        <v>84678.8312914487</v>
+        <v>84678.8312914583</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>5568.42747869588</v>
+        <v>5568.42747869607</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>70002.7293180481</v>
+        <v>70002.7293180483</v>
       </c>
       <c r="C24" t="n">
-        <v>58096.8927152047</v>
+        <v>58096.8927152089</v>
       </c>
       <c r="D24" t="n">
-        <v>48526.6983718552</v>
+        <v>48526.6983718501</v>
       </c>
       <c r="E24" t="n">
-        <v>84143.4979887768</v>
+        <v>84143.4979887647</v>
       </c>
       <c r="F24" t="n">
-        <v>89774.7117010438</v>
+        <v>89774.7117010456</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>8249.72931804808</v>
+        <v>8249.72931804828</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1166,16 +1166,16 @@
         <v>67321.2474498644</v>
       </c>
       <c r="C25" t="n">
-        <v>55910.7806711036</v>
+        <v>55910.7806711092</v>
       </c>
       <c r="D25" t="n">
-        <v>48234.1392886394</v>
+        <v>48234.1392886378</v>
       </c>
       <c r="E25" t="n">
-        <v>81885.5562907512</v>
+        <v>81885.5562907391</v>
       </c>
       <c r="F25" t="n">
-        <v>90461.2629417415</v>
+        <v>90461.2629417433</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>5533.2474498644</v>
+        <v>5533.24744986439</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>68510.4858587391</v>
+        <v>68510.4858587396</v>
       </c>
       <c r="C26" t="n">
-        <v>52947.6082945112</v>
+        <v>52947.6082945102</v>
       </c>
       <c r="D26" t="n">
-        <v>46097.6257458915</v>
+        <v>46097.6257458727</v>
       </c>
       <c r="E26" t="n">
-        <v>83975.8455786653</v>
+        <v>83975.845578665</v>
       </c>
       <c r="F26" t="n">
-        <v>96615.4233173389</v>
+        <v>96615.4233173319</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>6813.48585873914</v>
+        <v>6813.4858587396</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>61193.8554255798</v>
+        <v>61193.8554255799</v>
       </c>
       <c r="C27" t="n">
-        <v>48041.5312479197</v>
+        <v>48041.5312479267</v>
       </c>
       <c r="D27" t="n">
-        <v>37953.7073667283</v>
+        <v>37953.7073667289</v>
       </c>
       <c r="E27" t="n">
-        <v>77627.8501141081</v>
+        <v>77627.8501141049</v>
       </c>
       <c r="F27" t="n">
-        <v>83467.9715713178</v>
+        <v>83467.9715713176</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>8597.85542557983</v>
+        <v>8597.85542557992</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>90381.0760213281</v>
+        <v>90381.0760213282</v>
       </c>
       <c r="C28" t="n">
-        <v>75486.584012813</v>
+        <v>75486.584012808</v>
       </c>
       <c r="D28" t="n">
-        <v>65085.3698994497</v>
+        <v>65085.3698994527</v>
       </c>
       <c r="E28" t="n">
-        <v>106439.947948156</v>
+        <v>106439.947948165</v>
       </c>
       <c r="F28" t="n">
-        <v>113863.247311993</v>
+        <v>113863.247311985</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>17271.0760213281</v>
+        <v>17271.0760213282</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>86420.9699220167</v>
+        <v>86420.9699220168</v>
       </c>
       <c r="C29" t="n">
-        <v>72138.740169069</v>
+        <v>72138.7401690646</v>
       </c>
       <c r="D29" t="n">
-        <v>58985.5209469814</v>
+        <v>58985.5209469972</v>
       </c>
       <c r="E29" t="n">
-        <v>101583.935068062</v>
+        <v>101583.935068072</v>
       </c>
       <c r="F29" t="n">
-        <v>114144.857794388</v>
+        <v>114144.857794381</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>25235.9699220167</v>
+        <v>25235.9699220168</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>83315.8069562977</v>
+        <v>83315.8069562978</v>
       </c>
       <c r="C30" t="n">
-        <v>65682.0162732034</v>
+        <v>65682.016273188</v>
       </c>
       <c r="D30" t="n">
-        <v>61011.8496131242</v>
+        <v>61011.8496131489</v>
       </c>
       <c r="E30" t="n">
-        <v>101111.817917643</v>
+        <v>101111.817917657</v>
       </c>
       <c r="F30" t="n">
-        <v>108887.427935218</v>
+        <v>108887.427935208</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>19725.8069562977</v>
+        <v>19725.8069562978</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>79732.0359613807</v>
+        <v>79732.0359613809</v>
       </c>
       <c r="C31" t="n">
-        <v>65707.3310696464</v>
+        <v>65707.3310696664</v>
       </c>
       <c r="D31" t="n">
-        <v>57982.4674169724</v>
+        <v>57982.4674169578</v>
       </c>
       <c r="E31" t="n">
-        <v>96554.1502373829</v>
+        <v>96554.150237387</v>
       </c>
       <c r="F31" t="n">
-        <v>106786.525228229</v>
+        <v>106786.525228244</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>11831.0359613807</v>
+        <v>11831.0359613809</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>78158.9568900127</v>
+        <v>78158.9568900129</v>
       </c>
       <c r="C32" t="n">
-        <v>61820.1398377646</v>
+        <v>61820.139837767</v>
       </c>
       <c r="D32" t="n">
-        <v>51730.6341366448</v>
+        <v>51730.6341366669</v>
       </c>
       <c r="E32" t="n">
-        <v>95001.0732116804</v>
+        <v>95001.0732117006</v>
       </c>
       <c r="F32" t="n">
-        <v>106072.772954498</v>
+        <v>106072.772954491</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>6736.95689001273</v>
+        <v>6736.95689001291</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>73969.5055737498</v>
+        <v>73969.5055737502</v>
       </c>
       <c r="C33" t="n">
-        <v>57760.9348926698</v>
+        <v>57760.9348926663</v>
       </c>
       <c r="D33" t="n">
-        <v>50269.5291924635</v>
+        <v>50269.5291924619</v>
       </c>
       <c r="E33" t="n">
-        <v>91718.6116895955</v>
+        <v>91718.6116896096</v>
       </c>
       <c r="F33" t="n">
-        <v>99409.381109336</v>
+        <v>99409.3811093247</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>4950.50557374983</v>
+        <v>4950.50557375015</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>69725.998450447</v>
+        <v>69725.9984504472</v>
       </c>
       <c r="C34" t="n">
-        <v>53051.7837822795</v>
+        <v>53051.7837822994</v>
       </c>
       <c r="D34" t="n">
-        <v>43194.0617562909</v>
+        <v>43194.0617563009</v>
       </c>
       <c r="E34" t="n">
-        <v>87762.5238493822</v>
+        <v>87762.5238493962</v>
       </c>
       <c r="F34" t="n">
-        <v>97722.7778178987</v>
+        <v>97722.7778178904</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>11087.998450447</v>
+        <v>11087.9984504472</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>63050.0646740858</v>
+        <v>63050.064674086</v>
       </c>
       <c r="C35" t="n">
-        <v>45903.2165740472</v>
+        <v>45903.2165740504</v>
       </c>
       <c r="D35" t="n">
-        <v>35502.4450893567</v>
+        <v>35502.4450893597</v>
       </c>
       <c r="E35" t="n">
-        <v>80150.8215880956</v>
+        <v>80150.8215881045</v>
       </c>
       <c r="F35" t="n">
-        <v>90522.4581395498</v>
+        <v>90522.4581395403</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>11925.0646740858</v>
+        <v>11925.064674086</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>65498.6043074671</v>
+        <v>65498.6043074674</v>
       </c>
       <c r="C36" t="n">
-        <v>47650.4653780294</v>
+        <v>47650.4653780028</v>
       </c>
       <c r="D36" t="n">
-        <v>36975.809836597</v>
+        <v>36975.8098365824</v>
       </c>
       <c r="E36" t="n">
-        <v>84650.9824560341</v>
+        <v>84650.9824560281</v>
       </c>
       <c r="F36" t="n">
-        <v>95417.0247447207</v>
+        <v>95417.0247447126</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>17146.6043074671</v>
+        <v>17146.6043074674</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>62765.7611708878</v>
+        <v>62765.761170888</v>
       </c>
       <c r="C37" t="n">
-        <v>47196.8488046465</v>
+        <v>47196.8488046228</v>
       </c>
       <c r="D37" t="n">
-        <v>40907.5872878266</v>
+        <v>40907.5872878358</v>
       </c>
       <c r="E37" t="n">
-        <v>83728.5103790383</v>
+        <v>83728.5103790498</v>
       </c>
       <c r="F37" t="n">
-        <v>92561.1153516014</v>
+        <v>92561.1153515935</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>33951</v>
       </c>
       <c r="I37" t="n">
-        <v>28814.7611708878</v>
+        <v>28814.761170888</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>63558.90106826</v>
+        <v>63558.9010682606</v>
       </c>
       <c r="C38" t="n">
-        <v>46056.3082877904</v>
+        <v>46056.3082877947</v>
       </c>
       <c r="D38" t="n">
-        <v>38154.2296333818</v>
+        <v>38154.22963336</v>
       </c>
       <c r="E38" t="n">
-        <v>85474.287940058</v>
+        <v>85474.287940054</v>
       </c>
       <c r="F38" t="n">
-        <v>96065.4379803939</v>
+        <v>96065.4379803979</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>53730</v>
       </c>
       <c r="I38" t="n">
-        <v>9828.90106825998</v>
+        <v>9828.90106826056</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>57448.6215681731</v>
+        <v>57448.6215681733</v>
       </c>
       <c r="C39" t="n">
-        <v>41741.4127724647</v>
+        <v>41741.4127724721</v>
       </c>
       <c r="D39" t="n">
-        <v>23404.7763295825</v>
+        <v>23404.7763295891</v>
       </c>
       <c r="E39" t="n">
-        <v>77182.5258778665</v>
+        <v>77182.5258778587</v>
       </c>
       <c r="F39" t="n">
-        <v>93520.6631191704</v>
+        <v>93520.6631191616</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>71841</v>
       </c>
       <c r="I39" t="n">
-        <v>-14392.3784318269</v>
+        <v>-14392.3784318267</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>85781.9836362384</v>
+        <v>85781.9836362386</v>
       </c>
       <c r="C40" t="n">
-        <v>67690.4535050603</v>
+        <v>67690.4535050714</v>
       </c>
       <c r="D40" t="n">
-        <v>58460.0341633087</v>
+        <v>58460.0341633159</v>
       </c>
       <c r="E40" t="n">
-        <v>107045.370485699</v>
+        <v>107045.370485707</v>
       </c>
       <c r="F40" t="n">
-        <v>118265.230935217</v>
+        <v>118265.230935236</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>76331</v>
       </c>
       <c r="I40" t="n">
-        <v>9450.98363623839</v>
+        <v>9450.98363623855</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>82332.6304046536</v>
+        <v>82332.6304046538</v>
       </c>
       <c r="C41" t="n">
-        <v>63995.0883317818</v>
+        <v>63995.0883317928</v>
       </c>
       <c r="D41" t="n">
-        <v>52302.7636687295</v>
+        <v>52302.7636687398</v>
       </c>
       <c r="E41" t="n">
-        <v>103188.800947514</v>
+        <v>103188.800947506</v>
       </c>
       <c r="F41" t="n">
-        <v>117071.046085326</v>
+        <v>117071.046085325</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>72846</v>
       </c>
       <c r="I41" t="n">
-        <v>9486.63040465357</v>
+        <v>9486.6304046538</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>78995.3014859307</v>
+        <v>78995.301485931</v>
       </c>
       <c r="C42" t="n">
-        <v>57944.1326369022</v>
+        <v>57944.1326369158</v>
       </c>
       <c r="D42" t="n">
-        <v>45209.4160839984</v>
+        <v>45209.4160839842</v>
       </c>
       <c r="E42" t="n">
-        <v>99885.0588037375</v>
+        <v>99885.0588037331</v>
       </c>
       <c r="F42" t="n">
-        <v>115697.128774668</v>
+        <v>115697.128774664</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>69068</v>
       </c>
       <c r="I42" t="n">
-        <v>9927.3014859307</v>
+        <v>9927.30148593099</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>75872.7823876008</v>
+        <v>75872.7823876012</v>
       </c>
       <c r="C43" t="n">
-        <v>55015.5250532958</v>
+        <v>55015.5250533174</v>
       </c>
       <c r="D43" t="n">
-        <v>43322.3540569641</v>
+        <v>43322.3540569547</v>
       </c>
       <c r="E43" t="n">
-        <v>97111.072220944</v>
+        <v>97111.0722209262</v>
       </c>
       <c r="F43" t="n">
-        <v>111901.978163551</v>
+        <v>111901.978163568</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>64788</v>
       </c>
       <c r="I43" t="n">
-        <v>11084.7823876008</v>
+        <v>11084.7823876012</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>74324.5854224693</v>
+        <v>74324.5854224697</v>
       </c>
       <c r="C44" t="n">
-        <v>52117.3569429795</v>
+        <v>52117.3569429899</v>
       </c>
       <c r="D44" t="n">
-        <v>42014.4144581658</v>
+        <v>42014.4144581931</v>
       </c>
       <c r="E44" t="n">
-        <v>94858.0653701216</v>
+        <v>94858.0653701085</v>
       </c>
       <c r="F44" t="n">
-        <v>107051.990119944</v>
+        <v>107051.990119957</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>66989</v>
       </c>
       <c r="I44" t="n">
-        <v>7335.5854224693</v>
+        <v>7335.5854224697</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>69947.9435566459</v>
+        <v>69947.9435566463</v>
       </c>
       <c r="C45" t="n">
-        <v>50155.4410323732</v>
+        <v>50155.4410323792</v>
       </c>
       <c r="D45" t="n">
-        <v>37795.4359766932</v>
+        <v>37795.4359767226</v>
       </c>
       <c r="E45" t="n">
-        <v>92976.8236857014</v>
+        <v>92976.8236856986</v>
       </c>
       <c r="F45" t="n">
-        <v>109179.584310686</v>
+        <v>109179.58431069</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>66563</v>
       </c>
       <c r="I45" t="n">
-        <v>3384.94355664594</v>
+        <v>3384.94355664634</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>64917.5050838772</v>
+        <v>64917.5050838776</v>
       </c>
       <c r="C46" t="n">
-        <v>44554.7473167966</v>
+        <v>44554.7473168256</v>
       </c>
       <c r="D46" t="n">
-        <v>34261.4740979262</v>
+        <v>34261.4740979554</v>
       </c>
       <c r="E46" t="n">
-        <v>87670.0841224116</v>
+        <v>87670.0841223738</v>
       </c>
       <c r="F46" t="n">
-        <v>105428.676866744</v>
+        <v>105428.67686675</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>61859</v>
       </c>
       <c r="I46" t="n">
-        <v>3058.50508387722</v>
+        <v>3058.50508387756</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>58360.8166456575</v>
+        <v>58360.8166456579</v>
       </c>
       <c r="C47" t="n">
-        <v>35686.2031142367</v>
+        <v>35686.2031142559</v>
       </c>
       <c r="D47" t="n">
-        <v>21687.7927724663</v>
+        <v>21687.7927724915</v>
       </c>
       <c r="E47" t="n">
-        <v>83629.0602721247</v>
+        <v>83629.060272127</v>
       </c>
       <c r="F47" t="n">
-        <v>101158.873582119</v>
+        <v>101158.873582118</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>59239</v>
       </c>
       <c r="I47" t="n">
-        <v>-878.183354342538</v>
+        <v>-878.183354342138</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>60953.1930537832</v>
+        <v>60953.1930537836</v>
       </c>
       <c r="C48" t="n">
-        <v>39456.4390158692</v>
+        <v>39456.4390158705</v>
       </c>
       <c r="D48" t="n">
-        <v>21787.2206706259</v>
+        <v>21787.2206706333</v>
       </c>
       <c r="E48" t="n">
-        <v>82071.1662606908</v>
+        <v>82071.1662606914</v>
       </c>
       <c r="F48" t="n">
-        <v>100340.729006976</v>
+        <v>100340.729006967</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>57432</v>
       </c>
       <c r="I48" t="n">
-        <v>3521.19305378319</v>
+        <v>3521.19305378356</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>58974.2519636724</v>
+        <v>58974.2519636727</v>
       </c>
       <c r="C49" t="n">
-        <v>37063.9248628769</v>
+        <v>37063.9248628702</v>
       </c>
       <c r="D49" t="n">
-        <v>25223.4492432104</v>
+        <v>25223.4492432346</v>
       </c>
       <c r="E49" t="n">
-        <v>83739.0145806582</v>
+        <v>83739.014580653</v>
       </c>
       <c r="F49" t="n">
-        <v>102734.688784754</v>
+        <v>102734.688784751</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>52826</v>
       </c>
       <c r="I49" t="n">
-        <v>6148.2519636724</v>
+        <v>6148.25196367266</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
